--- a/Data/TW-overview.xlsx
+++ b/Data/TW-overview.xlsx
@@ -1,100 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uapt33090-my.sharepoint.com/personal/heliana_teixeira_ua_pt/Documents/Rdir/WFD-TRaC-data-upto2022/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_FD5A12371D9161A9CE15B356ABF8076192590C4E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E65C8B52-B316-AC43-AACE-865996070756}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16460" windowHeight="14000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">QE1-1 - Phytoplankton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QE1-2 - Other aquatic flora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QE1-2-1 - Macroalgae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QE1-2-2 - Angiosperms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QE1-2-3 - Macrophytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QE1-2-4 - Phytobenthos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QE1-3 - Benthic invertebrates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QE1-4 - Fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UK</t>
+    <t/>
+  </si>
+  <si>
+    <t>QE1-1 - Phytoplankton</t>
+  </si>
+  <si>
+    <t>QE1-2 - Other aquatic flora</t>
+  </si>
+  <si>
+    <t>QE1-2-1 - Macroalgae</t>
+  </si>
+  <si>
+    <t>QE1-2-2 - Angiosperms</t>
+  </si>
+  <si>
+    <t>QE1-2-3 - Macrophytes</t>
+  </si>
+  <si>
+    <t>QE1-2-4 - Phytobenthos</t>
+  </si>
+  <si>
+    <t>QE1-3 - Benthic invertebrates</t>
+  </si>
+  <si>
+    <t>QE1-4 - Fish</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>UK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -130,6 +137,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -411,14 +427,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,472 +468,472 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>20</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>21</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>9</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>28</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>8</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>29</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>207</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>25</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>24</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>156</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>51</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>63</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>13</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>51</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>37</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>40</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>29</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>51</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>13</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>51</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>124</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>33</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>24</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>24</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>81</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>34</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>94</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>3</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>3</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>7</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>10</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>10</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>15</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>15</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>76</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>15</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>26</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>4</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>48</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>64</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>4</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>3</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>2</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>109</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>233</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>42</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>195</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>179</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>